--- a/AndroidFine-master/ziliao/多媒体接口文档.xlsx
+++ b/AndroidFine-master/ziliao/多媒体接口文档.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEB759-38A7-C441-9037-169688255365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用接口" sheetId="1" r:id="rId1"/>
@@ -84,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,11 +133,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,20 +418,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" activeCellId="1" sqref="C8 C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="130" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,13 +439,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -455,18 +456,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="96">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -474,13 +475,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -491,18 +492,18 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="80">
       <c r="A12" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -510,13 +511,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -527,14 +528,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/AndroidFine-master/ziliao/多媒体接口文档.xlsx
+++ b/AndroidFine-master/ziliao/多媒体接口文档.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00BEB759-38A7-C441-9037-169688255365}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7410CE4-C6EF-3744-8063-B7E39A46F893}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="28800" windowHeight="15060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="通用接口" sheetId="1" r:id="rId1"/>
@@ -60,9 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GETDAYPROGRAM(133, "getDayProgram", "获取当天节目"),</t>
-  </si>
-  <si>
     <t>[{"programId":86,"terminalIdentity":"f997f147-f6ce-3db9-8843-022f613ed7d5","timeQuantum":"00:00-24:00","type":0},{"programId":62,"terminalIdentity":"f997f147-f6ce-3db9-8843-022f613ed7d5","timeQuantum":"00:00-24:00","type":0},{"programId":62,"terminalIdentity":"f997f147-f6ce-3db9-8843-022f613ed7d5","timeQuantum":"00:00-24:00","type":0}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,6 +76,10 @@
   </si>
   <si>
     <t>{"appName":app名,"packName":包名,"edition":版本号}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GETDAYPROGRAM(133, "getDayProgram", "获取当天节目"),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +423,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" activeCellId="1" sqref="C8 C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -472,7 +473,7 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -497,10 +498,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -508,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -533,7 +534,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2"/>
     </row>
